--- a/docx/2b3_ans.xlsx
+++ b/docx/2b3_ans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Secret\Seriosly\Projects\FirstProgramMicrosoftProject\docx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA574418-1DE0-4479-A8D8-CEBB05402B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC371DE-F8F4-43D8-B79C-F45A7C8808DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -230,6 +230,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00\ &quot;₽&quot;_);_(* \(#,##0.00\)\ &quot;₽&quot;;_(&quot;₽&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0\ &quot;₽&quot;_);_(* \(#,##0\)\ &quot;₽&quot;;_(&quot;₽&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1093,7 +1099,7 @@
   <dimension ref="A1:AJ32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="Z6" sqref="Z6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1291,7 +1297,7 @@
       </c>
       <c r="AJ3" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.3">
@@ -1328,8 +1334,8 @@
       <c r="S4" t="s">
         <v>30</v>
       </c>
-      <c r="T4" t="s">
-        <v>6</v>
+      <c r="T4" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="AE4" t="b">
         <f t="shared" si="0"/>
@@ -1403,11 +1409,11 @@
       </c>
       <c r="AG5" t="b">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="b">
         <f t="shared" si="4"/>
@@ -1415,7 +1421,7 @@
       </c>
       <c r="AJ5" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.3">
@@ -1444,16 +1450,16 @@
         <v>3</v>
       </c>
       <c r="Q6" s="1">
-        <v>45482.375</v>
+        <v>45481.375</v>
       </c>
       <c r="R6" s="1">
-        <v>45483.75</v>
+        <v>45482.75</v>
       </c>
       <c r="S6" t="s">
         <v>7</v>
       </c>
-      <c r="T6" t="s">
-        <v>6</v>
+      <c r="T6" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="AE6" t="b">
         <f t="shared" si="0"/>
@@ -1713,11 +1719,11 @@
       </c>
       <c r="AG10" t="b">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH10" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI10" t="b">
         <f t="shared" si="4"/>
@@ -1754,10 +1760,10 @@
         <v>9</v>
       </c>
       <c r="Q11" s="1">
-        <v>45484.375</v>
+        <v>45482.375</v>
       </c>
       <c r="R11" s="1">
-        <v>45486.75</v>
+        <v>45484.75</v>
       </c>
       <c r="S11" t="s">
         <v>32</v>
@@ -1787,7 +1793,7 @@
       </c>
       <c r="AJ11" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.3">
@@ -1824,8 +1830,8 @@
       <c r="S12" t="s">
         <v>12</v>
       </c>
-      <c r="T12" t="s">
-        <v>6</v>
+      <c r="T12" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="AE12" t="b">
         <f t="shared" si="0"/>
@@ -1878,10 +1884,10 @@
         <v>9</v>
       </c>
       <c r="Q13" s="1">
-        <v>45492.375</v>
+        <v>45489.375</v>
       </c>
       <c r="R13" s="1">
-        <v>45494.75</v>
+        <v>45491.75</v>
       </c>
       <c r="S13" t="s">
         <v>13</v>
@@ -1940,10 +1946,10 @@
         <v>3</v>
       </c>
       <c r="Q14" s="1">
-        <v>45490.375</v>
+        <v>45491.375</v>
       </c>
       <c r="R14" s="1">
-        <v>45491.75</v>
+        <v>45492.75</v>
       </c>
       <c r="S14" t="s">
         <v>14</v>
@@ -2064,10 +2070,10 @@
         <v>9</v>
       </c>
       <c r="Q16" s="1">
-        <v>45487.375</v>
+        <v>45485.375</v>
       </c>
       <c r="R16" s="1">
-        <v>45489.75</v>
+        <v>45487.75</v>
       </c>
       <c r="S16" t="s">
         <v>40</v>
@@ -2126,10 +2132,10 @@
         <v>9</v>
       </c>
       <c r="Q17" s="1">
-        <v>45489.375</v>
+        <v>45488.375</v>
       </c>
       <c r="R17" s="1">
-        <v>45491.75</v>
+        <v>45490.75</v>
       </c>
       <c r="S17" t="s">
         <v>40</v>
@@ -2188,10 +2194,10 @@
         <v>3</v>
       </c>
       <c r="Q18" s="1">
-        <v>45495.375</v>
+        <v>45493.375</v>
       </c>
       <c r="R18" s="1">
-        <v>45496.75</v>
+        <v>45494.75</v>
       </c>
       <c r="S18" t="s">
         <v>16</v>
@@ -2374,10 +2380,10 @@
         <v>3</v>
       </c>
       <c r="Q21" s="1">
-        <v>45496.375</v>
+        <v>45495.375</v>
       </c>
       <c r="R21" s="1">
-        <v>45497.75</v>
+        <v>45496.75</v>
       </c>
       <c r="S21" t="s">
         <v>19</v>
@@ -2560,10 +2566,10 @@
         <v>9</v>
       </c>
       <c r="Q24" s="1">
-        <v>45497.375</v>
+        <v>45496.375</v>
       </c>
       <c r="R24" s="1">
-        <v>45499.75</v>
+        <v>45498.75</v>
       </c>
       <c r="S24" t="s">
         <v>22</v>
@@ -2622,10 +2628,10 @@
         <v>62</v>
       </c>
       <c r="Q25" s="1">
-        <v>45500.375</v>
+        <v>45499.375</v>
       </c>
       <c r="R25" s="1">
-        <v>45504.75</v>
+        <v>45503.75</v>
       </c>
       <c r="S25" t="s">
         <v>23</v>
@@ -2746,10 +2752,10 @@
         <v>3</v>
       </c>
       <c r="Q27" s="1">
-        <v>45505.375</v>
+        <v>45504.375</v>
       </c>
       <c r="R27" s="1">
-        <v>45506.75</v>
+        <v>45505.75</v>
       </c>
       <c r="S27" t="s">
         <v>50</v>
@@ -2779,7 +2785,7 @@
       </c>
       <c r="AJ27" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.3">
@@ -2808,16 +2814,16 @@
         <v>11</v>
       </c>
       <c r="Q28" s="1">
-        <v>45505.375</v>
+        <v>45502.375</v>
       </c>
       <c r="R28" s="1">
-        <v>45508.75</v>
+        <v>45505.75</v>
       </c>
       <c r="S28" t="s">
         <v>25</v>
       </c>
-      <c r="T28" t="s">
-        <v>6</v>
+      <c r="T28" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="AE28" t="b">
         <f t="shared" si="0"/>
@@ -2932,10 +2938,10 @@
         <v>3</v>
       </c>
       <c r="Q30" s="1">
-        <v>45507.375</v>
+        <v>45506.375</v>
       </c>
       <c r="R30" s="1">
-        <v>45508.75</v>
+        <v>45507.75</v>
       </c>
       <c r="S30" t="s">
         <v>27</v>
@@ -2994,10 +3000,10 @@
         <v>11</v>
       </c>
       <c r="Q31" s="1">
-        <v>45509.375</v>
+        <v>45508.375</v>
       </c>
       <c r="R31" s="1">
-        <v>45512.75</v>
+        <v>45511.75</v>
       </c>
       <c r="S31" t="s">
         <v>28</v>
@@ -3056,10 +3062,10 @@
         <v>62</v>
       </c>
       <c r="Q32" s="1">
-        <v>45513.375</v>
+        <v>45512.375</v>
       </c>
       <c r="R32" s="1">
-        <v>45517.75</v>
+        <v>45516.75</v>
       </c>
       <c r="S32" t="s">
         <v>29</v>
